--- a/docs/StructureDefinition-Etnia.xlsx
+++ b/docs/StructureDefinition-Etnia.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="198">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T08:40:42-03:00</t>
+    <t>2023-01-17T01:53:31-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,6 +279,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -303,10 +306,31 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.url</t>
+    <t>Extension.extension:etnia</t>
+  </si>
+  <si>
+    <t>etnia</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Extension.extension:etnia.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:etnia.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:etnia.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -322,10 +346,16 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
+    <t>Extension.extension:etnia.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -345,11 +375,14 @@
     <t>closed</t>
   </si>
   <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
@@ -358,16 +391,16 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x].extension</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].extension</t>
   </si>
   <si>
     <t>extensions
@@ -383,10 +416,10 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -411,22 +444,22 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding.system</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding.system</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding.system</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -447,10 +480,10 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding.version</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding.version</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding.version</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -468,10 +501,10 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding.code</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding.code</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding.code</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding.code</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -487,16 +520,22 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSPuebloIndigena</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
     <t>./code</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding.display</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding.display</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding.display</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -514,10 +553,10 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Extension.value[x].coding.userSelected</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -542,13 +581,13 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>Extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
+    <t>Extension.extension:etnia.value[x]:valueCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Ingresar pueblo pertenciente, en caso que no se encuentre en la lista</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
@@ -564,6 +603,28 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Extension.extension:pertenencia</t>
+  </si>
+  <si>
+    <t>pertenencia</t>
+  </si>
+  <si>
+    <t>Extension.extension:pertenencia.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:pertenencia.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:pertenencia.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:pertenencia.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -883,7 +944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -892,8 +953,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="71.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.21875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
@@ -902,7 +963,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -917,7 +978,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1262,10 +1323,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1277,13 +1338,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1322,19 +1383,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1346,7 +1407,7 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1354,12 +1415,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="D5" t="s" s="2">
         <v>73</v>
       </c>
@@ -1368,10 +1431,10 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>73</v>
@@ -1380,24 +1443,22 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>73</v>
@@ -1439,30 +1500,30 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1485,13 +1546,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1530,17 +1591,19 @@
         <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1552,22 +1615,20 @@
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>73</v>
       </c>
@@ -1576,7 +1637,7 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1588,13 +1649,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1633,42 +1694,42 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1676,13 +1737,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>73</v>
@@ -1691,22 +1752,24 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>73</v>
@@ -1748,10 +1811,10 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -1763,26 +1826,26 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1794,17 +1857,15 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>73</v>
@@ -1841,34 +1902,32 @@
         <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1876,43 +1935,41 @@
         <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>73</v>
       </c>
@@ -1960,30 +2017,30 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2083,14 +2140,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2109,16 +2166,16 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2156,19 +2213,19 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2180,7 +2237,7 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>84</v>
@@ -2188,10 +2245,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2199,34 +2256,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2275,30 +2332,30 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2318,20 +2375,18 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>73</v>
@@ -2380,7 +2435,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2392,52 +2447,52 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>73</v>
       </c>
@@ -2473,42 +2528,42 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2516,32 +2571,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -2590,7 +2647,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2602,18 +2659,18 @@
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2633,23 +2690,21 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>73</v>
       </c>
@@ -2697,7 +2752,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2709,18 +2764,18 @@
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2734,28 +2789,26 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -2780,13 +2833,11 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>
@@ -2804,26 +2855,1072 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="L20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>177</v>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK18">
+  <autoFilter ref="A1:AK28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2833,7 +3930,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
